--- a/output/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9aurac_brawler_levels_team.xlsx
@@ -73,6 +73,9 @@
     <t>DepressedRekt™</t>
   </si>
   <si>
+    <t>VS∣Daniel</t>
+  </si>
+  <si>
     <t>Blue</t>
   </si>
   <si>
@@ -100,7 +103,10 @@
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
-    <t>Shrimp❤️Blu</t>
+    <t>Katie ♪</t>
+  </si>
+  <si>
+    <t>SG|🔥Fire🔥</t>
   </si>
   <si>
     <t>pigeo</t>
@@ -124,12 +130,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>Hrstprek</t>
-  </si>
-  <si>
-    <t>VS∣Daniel</t>
-  </si>
-  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -163,6 +163,9 @@
     <t>#VY9JJ9RQ</t>
   </si>
   <si>
+    <t>#PCRG080</t>
+  </si>
+  <si>
     <t>#C9LR0R0V</t>
   </si>
   <si>
@@ -190,7 +193,10 @@
     <t>#RQUQG8JY</t>
   </si>
   <si>
-    <t>#CPPVG0R</t>
+    <t>#9JRGQ0CR</t>
+  </si>
+  <si>
+    <t>#CQ8RC802</t>
   </si>
   <si>
     <t>#RYVGJYQ2</t>
@@ -214,58 +220,55 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
-    <t>#2R9GVJUCV</t>
-  </si>
-  <si>
-    <t>#PCRG080</t>
-  </si>
-  <si>
-    <t>AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, LOLA, MAX, MEG, RICO, RUFFS, SANDY, SPIKE, STU, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>BIBI, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, NANI, PAM, PENNY, PIPER, POCO, RICO, ROSA, SHELLY, SURGE</t>
-  </si>
-  <si>
-    <t>AMBER, ASH, BELLE, BYRON, CARL, DARRYL, GALE, MAX, MORTIS, PAM, PIPER, RICO, SPROUT, STU</t>
-  </si>
-  <si>
-    <t>BYRON, CARL, CROW, EMZ, FRANK, GALE, GENE, MAX, MORTIS, POCO, RUFFS, SANDY, SPROUT, SQUEAK, STU, SURGE</t>
-  </si>
-  <si>
-    <t>ASH, BEA, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, JANET, LOU, MORTIS, PIPER, POCO, RICO, ROSA, SAM, SPIKE, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>BELLE, BIBI, BONNIE, BROCK, BYRON, CARL, CROW, EDGAR, EMZ, FANG, GENE, GUS, JACKY, LOLA, MAX, MEG, SAM, SANDY, SPROUT, STU</t>
+    <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBI, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, NANI, PAM, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, ASH, BELLE, BYRON, CARL, DARRYL, GALE, MAX, MORTIS, PAM, PIPER, RICO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BYRON, CARL, CROW, EMZ, FRANK, GALE, GENE, MAX, MORTIS, POCO, RUFFS, SANDY, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, JANET, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BIBI, BONNIE, BROCK, BYRON, CARL, CROW, EDGAR, EMZ, FANG, GENE, GUS, ... </t>
   </si>
   <si>
     <t>EMZ, EVE</t>
   </si>
   <si>
-    <t>ASH, BELLE, BONNIE, CARL, COLETTE, CROW, GRIFF, JANET, LOLA, MAX, NITA, POCO, SAM, STU, SURGE</t>
+    <t xml:space="preserve">ASH, BELLE, BONNIE, CARL, COLETTE, CROW, GRIFF, JANET, LOLA, MAX, NITA, POCO, ... </t>
   </si>
   <si>
     <t>BEA, BIBI, COLETTE, EMZ, JACKY, JANET, LOLA, MAX, RICO, TARA</t>
   </si>
   <si>
-    <t>BELLE, BROCK, BYRON, CARL, CROW, EL PRIMO, EMZ, EVE, FANG, GRIFF, JACKY, LEON, LOU, MAX, MEG, MORTIS, MR. P, NANI, PIPER, POCO, RICO, ROSA, RUFFS, SANDY, SPIKE, SPROUT, SQUEAK, STU, SURGE, TARA</t>
+    <t xml:space="preserve">BELLE, BROCK, BYRON, CARL, CROW, EL PRIMO, EMZ, EVE, FANG, GRIFF, JACKY, LEON, ... </t>
   </si>
   <si>
     <t>PIPER</t>
   </si>
   <si>
-    <t>BEA, BO, BONNIE, BYRON, CROW, FANG, GENE, GRIFF, JANET, LEON, MAX, NITA, POCO, SANDY, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t>8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, COLT, CROW, EMZ, EVE, FANG, GALE, GENE, GRIFF, JACKY, JANET, JESSIE, LOLA, LOU, MAX, NANI, OTIS, PAM, PENNY, PIPER, POCO, RUFFS, SAM, SANDY, SPIKE, SPROUT, SQUEAK, STU, SURGE, TARA</t>
-  </si>
-  <si>
-    <t>ASH, BEA, BELLE, BROCK, CARL, COLETTE, EMZ, EVE, FANG, GALE, GENE, GRIFF, MAX, NITA, PENNY, POCO, ROSA, RUFFS, SPIKE, STU, SURGE, TARA, TICK</t>
+    <t>BELLE, CROW, GENE, LEON, MAX, SANDY, SQUEAK, SURGE, TARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BONNIE, BYRON, CROW, FANG, GENE, GRIFF, JANET, LEON, MAX, NITA, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BYRON, CARL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, CARL, COLETTE, EMZ, EVE, FANG, GALE, GENE, GRIFF, ... </t>
   </si>
   <si>
     <t>BULL, BUZZ, CROW, DARRYL, EMZ, GALE, JANET, MORTIS, SHELLY, SPIKE, STU, SURGE</t>
   </si>
   <si>
-    <t>BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, FRANK, GALE, GROM, JANET, MEG, PAM, PIPER, RUFFS, SPIKE, SURGE</t>
+    <t xml:space="preserve">BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, FRANK, GALE, GROM, ... </t>
   </si>
   <si>
     <t>JANET, LEON, STU, TARA, TICK</t>
@@ -274,16 +277,19 @@
     <t>BONNIE, CROW, DARRYL, EVE, FANG, TICK</t>
   </si>
   <si>
-    <t>BELLE, BO, BONNIE, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, JANET, LEON, MAX, MEG, MR. P, OTIS, POCO, ROSA, SAM, SANDY, STU, TARA</t>
-  </si>
-  <si>
-    <t>CARL, CROW, EMZ, EVE, GRIFF, JESSIE, PIPER, ROSA, SANDY, SPIKE, SQUEAK, SURGE, TARA, TICK</t>
-  </si>
-  <si>
-    <t>MORTIS</t>
-  </si>
-  <si>
-    <t>BELLE, BIBI, BO, BROCK, BUZZ, CARL, DARRYL, EMZ, FANG, GALE, GENE, JANET, LEON, LOLA, MAX, PIPER, RICO, SPROUT, STU</t>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, JANET, LEON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARL, CROW, EMZ, EVE, GRIFF, JESSIE, PIPER, ROSA, SANDY, SPIKE, SQUEAK, SURGE, ... </t>
+  </si>
+  <si>
+    <t>ASH, CARL, MAX, RICO</t>
+  </si>
+  <si>
+    <t>CARL, MAX, MORTIS, SPIKE, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BIBI, BO, BROCK, BUZZ, CARL, DARRYL, EMZ, FANG, GALE, GENE, JANET, ... </t>
   </si>
   <si>
     <t>DARRYL, EL PRIMO, GALE, LEON, SANDY</t>
@@ -295,25 +301,19 @@
     <t>ASH, CROW, FANG, MORTIS, SPIKE, STU, SURGE</t>
   </si>
   <si>
-    <t>BELLE, BO, BONNIE, BYRON, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, PAM, RICO, SANDY, SPIKE, STU, TARA</t>
-  </si>
-  <si>
-    <t>BROCK, PENNY</t>
-  </si>
-  <si>
-    <t>ASH, BELLE, BROCK, BYRON, EMZ, GENE, GRIFF, JANET, LOLA, MEG, SPIKE, TICK</t>
-  </si>
-  <si>
-    <t>BO, CARL, GENE</t>
-  </si>
-  <si>
-    <t>BELLE, CROW, GENE, LEON, MAX, SANDY, SQUEAK, SURGE, TARA</t>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, PAM, ... </t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, PENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BELLE, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, LOLA, MEG, SPIKE, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-10-06</t>
+    <t>2022-10-10</t>
   </si>
 </sst>
 </file>
@@ -755,16 +755,16 @@
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>37262</v>
+        <v>37275</v>
       </c>
       <c r="E2" s="2">
         <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>68</v>
@@ -807,16 +807,16 @@
         <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>37262</v>
+        <v>37275</v>
       </c>
       <c r="E4" s="2">
         <v>30</v>
       </c>
       <c r="F4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>68</v>
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>29415</v>
+        <v>29397</v>
       </c>
       <c r="E6" s="2">
         <v>12</v>
@@ -885,13 +885,13 @@
         <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>47838</v>
+        <v>48005</v>
       </c>
       <c r="E7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2">
         <v>16</v>
@@ -911,16 +911,16 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>42087</v>
+        <v>42224</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>72</v>
@@ -937,7 +937,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>44166</v>
+        <v>44174</v>
       </c>
       <c r="E9" s="2">
         <v>34</v>
@@ -963,7 +963,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>33928</v>
+        <v>34121</v>
       </c>
       <c r="E10" s="2">
         <v>42</v>
@@ -989,16 +989,16 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>36090</v>
+        <v>36363</v>
       </c>
       <c r="E11" s="2">
         <v>13</v>
       </c>
       <c r="F11" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>75</v>
@@ -1015,13 +1015,13 @@
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>44037</v>
+        <v>44717</v>
       </c>
       <c r="E12" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2">
         <v>10</v>
@@ -1041,7 +1041,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>42663</v>
+        <v>42758</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
@@ -1067,13 +1067,13 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>30508</v>
+        <v>30697</v>
       </c>
       <c r="E14" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1087,22 +1087,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>33014</v>
+        <v>41619</v>
       </c>
       <c r="E15" s="2">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G15" s="2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>79</v>
@@ -1119,16 +1119,16 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>41093</v>
+        <v>33039</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>80</v>
@@ -1145,16 +1145,16 @@
         <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>40488</v>
+        <v>41258</v>
       </c>
       <c r="E17" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1165,22 +1165,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>36246</v>
+        <v>40739</v>
       </c>
       <c r="E18" s="2">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G18" s="2">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>82</v>
@@ -1197,16 +1197,16 @@
         <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>41359</v>
+        <v>36332</v>
       </c>
       <c r="E19" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>83</v>
@@ -1223,16 +1223,16 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>27487</v>
+        <v>41665</v>
       </c>
       <c r="E20" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G20" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>84</v>
@@ -1243,22 +1243,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>35645</v>
+        <v>27580</v>
       </c>
       <c r="E21" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>85</v>
@@ -1275,16 +1275,16 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>30057</v>
+        <v>35757</v>
       </c>
       <c r="E22" s="2">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G22" s="2">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>86</v>
@@ -1301,16 +1301,16 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>37398</v>
+        <v>30060</v>
       </c>
       <c r="E23" s="2">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G23" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>87</v>
@@ -1321,22 +1321,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>50742</v>
+        <v>37531</v>
       </c>
       <c r="E24" s="2">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F24" s="2">
         <v>27</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1353,16 +1353,16 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>47811</v>
+        <v>16200</v>
       </c>
       <c r="E25" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F25" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G25" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>89</v>
@@ -1373,19 +1373,19 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>23173</v>
+        <v>37402</v>
       </c>
       <c r="E26" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F26" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -1399,22 +1399,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>31803</v>
+        <v>48000</v>
       </c>
       <c r="E27" s="2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F27" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G27" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>91</v>
@@ -1431,16 +1431,16 @@
         <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>33613</v>
+        <v>23245</v>
       </c>
       <c r="E28" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G28" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>92</v>
@@ -1451,22 +1451,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>34461</v>
+        <v>31859</v>
       </c>
       <c r="E29" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>93</v>
@@ -1477,22 +1477,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>37470</v>
+        <v>33855</v>
       </c>
       <c r="E30" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F30" s="2">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>94</v>
@@ -1509,16 +1509,16 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>37033</v>
+        <v>34504</v>
       </c>
       <c r="E31" s="2">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="G31" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>95</v>
@@ -1528,18 +1528,20 @@
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>25501</v>
+        <v>37479</v>
       </c>
       <c r="E32" s="2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F32" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2">
         <v>3</v>
@@ -1552,21 +1554,23 @@
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>41218</v>
+        <v>37221</v>
       </c>
       <c r="E33" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F33" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -1577,7 +1581,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H31">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9aurac_brawler_levels_team.xlsx
@@ -52,9 +52,6 @@
     <t>BennyBoy_</t>
   </si>
   <si>
-    <t>Breezey💦</t>
-  </si>
-  <si>
     <t>Tribe|LHC</t>
   </si>
   <si>
@@ -94,31 +91,28 @@
     <t>MuffinIsCute</t>
   </si>
   <si>
-    <t>hyperganxd</t>
-  </si>
-  <si>
     <t>nik haikal</t>
   </si>
   <si>
+    <t>❄|Vırtual ◇</t>
+  </si>
+  <si>
     <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
   </si>
   <si>
-    <t>Katie ♪</t>
-  </si>
-  <si>
     <t>SG|🔥Fire🔥</t>
   </si>
   <si>
-    <t>pigeo</t>
-  </si>
-  <si>
-    <t>Lava Blaze</t>
-  </si>
-  <si>
-    <t>MR.</t>
-  </si>
-  <si>
-    <t>Tsunami splash</t>
+    <t>ᴸᴼᵛᴱ ᵞᴼᵁ Aegis</t>
+  </si>
+  <si>
+    <t>JustBeNice</t>
+  </si>
+  <si>
+    <t>Procrastinator⏳</t>
+  </si>
+  <si>
+    <t>menoobenelol</t>
   </si>
   <si>
     <t>XiXi</t>
@@ -130,6 +124,12 @@
     <t>one</t>
   </si>
   <si>
+    <t>TRIBE LHC</t>
+  </si>
+  <si>
+    <t>哥本哈根大使</t>
+  </si>
+  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -142,82 +142,82 @@
     <t>#2PR80P8CU</t>
   </si>
   <si>
+    <t>#J2RLUJP2</t>
+  </si>
+  <si>
+    <t>#9UPQVRQ</t>
+  </si>
+  <si>
+    <t>#2LJGQ02YV</t>
+  </si>
+  <si>
+    <t>#YQ0LJU2</t>
+  </si>
+  <si>
+    <t>#RGVL0L8V</t>
+  </si>
+  <si>
+    <t>#VY9JJ9RQ</t>
+  </si>
+  <si>
+    <t>#PCRG080</t>
+  </si>
+  <si>
+    <t>#C9LR0R0V</t>
+  </si>
+  <si>
+    <t>#UCY09URC</t>
+  </si>
+  <si>
+    <t>#2YQUPUYJ</t>
+  </si>
+  <si>
+    <t>#20P9JY09C</t>
+  </si>
+  <si>
+    <t>#R82QLVQJ</t>
+  </si>
+  <si>
+    <t>#RLUYCG8V</t>
+  </si>
+  <si>
+    <t>#P00C0RR8</t>
+  </si>
+  <si>
+    <t>#U99LR8PR</t>
+  </si>
+  <si>
+    <t>#RQUQG8JY</t>
+  </si>
+  <si>
+    <t>#CQ8RC802</t>
+  </si>
+  <si>
+    <t>#LVCLCLYC</t>
+  </si>
+  <si>
+    <t>#J90L8C0Y</t>
+  </si>
+  <si>
+    <t>#V2JCQQQJ</t>
+  </si>
+  <si>
+    <t>#CP988U8Y</t>
+  </si>
+  <si>
+    <t>#CJ2Y202J</t>
+  </si>
+  <si>
+    <t>#J9CJGRLG</t>
+  </si>
+  <si>
+    <t>#2LQ899P82</t>
+  </si>
+  <si>
     <t>#9C0UUJVJ</t>
   </si>
   <si>
-    <t>#J2RLUJP2</t>
-  </si>
-  <si>
-    <t>#9UPQVRQ</t>
-  </si>
-  <si>
-    <t>#2LJGQ02YV</t>
-  </si>
-  <si>
-    <t>#YQ0LJU2</t>
-  </si>
-  <si>
-    <t>#RGVL0L8V</t>
-  </si>
-  <si>
-    <t>#VY9JJ9RQ</t>
-  </si>
-  <si>
-    <t>#PCRG080</t>
-  </si>
-  <si>
-    <t>#C9LR0R0V</t>
-  </si>
-  <si>
-    <t>#UCY09URC</t>
-  </si>
-  <si>
-    <t>#2YQUPUYJ</t>
-  </si>
-  <si>
-    <t>#20P9JY09C</t>
-  </si>
-  <si>
-    <t>#R82QLVQJ</t>
-  </si>
-  <si>
-    <t>#RLUYCG8V</t>
-  </si>
-  <si>
-    <t>#RJQ2QGU2</t>
-  </si>
-  <si>
-    <t>#P00C0RR8</t>
-  </si>
-  <si>
-    <t>#RQUQG8JY</t>
-  </si>
-  <si>
-    <t>#9JRGQ0CR</t>
-  </si>
-  <si>
-    <t>#CQ8RC802</t>
-  </si>
-  <si>
-    <t>#RYVGJYQ2</t>
-  </si>
-  <si>
-    <t>#2QPRUQJP2</t>
-  </si>
-  <si>
-    <t>#9V8GGUQRR</t>
-  </si>
-  <si>
-    <t>#82GLQ8VQJ</t>
-  </si>
-  <si>
-    <t>#CJ2Y202J</t>
-  </si>
-  <si>
-    <t>#J9CJGRLG</t>
-  </si>
-  <si>
-    <t>#2LQ899P82</t>
+    <t>#9CQURRU28</t>
   </si>
   <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
@@ -226,94 +226,94 @@
     <t xml:space="preserve">BIBI, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, NANI, PAM, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">AMBER, ASH, BELLE, BYRON, CARL, DARRYL, GALE, MAX, MORTIS, PAM, PIPER, RICO, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYRON, CARL, CROW, EMZ, FRANK, GALE, GENE, MAX, MORTIS, POCO, RUFFS, SANDY, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, JANET, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BIBI, BONNIE, BROCK, BYRON, CARL, CROW, EDGAR, EMZ, FANG, GENE, GUS, ... </t>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, LOLA, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BIBI, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, ... </t>
   </si>
   <si>
     <t>EMZ, EVE</t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BELLE, BONNIE, CARL, COLETTE, CROW, GRIFF, JANET, LOLA, MAX, NITA, POCO, ... </t>
-  </si>
-  <si>
-    <t>BEA, BIBI, COLETTE, EMZ, JACKY, JANET, LOLA, MAX, RICO, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BROCK, BYRON, CARL, CROW, EL PRIMO, EMZ, EVE, FANG, GRIFF, JACKY, LEON, ... </t>
-  </si>
-  <si>
-    <t>PIPER</t>
-  </si>
-  <si>
-    <t>BELLE, CROW, GENE, LEON, MAX, SANDY, SQUEAK, SURGE, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BO, BONNIE, BYRON, CROW, FANG, GENE, GRIFF, JANET, LEON, MAX, NITA, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BYRON, CARL, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BROCK, CARL, COLETTE, EMZ, EVE, FANG, GALE, GENE, GRIFF, ... </t>
+    <t xml:space="preserve">ASH, BEA, BELLE, BONNIE, CARL, COLETTE, CROW, GENE, GRIFF, JANET, LOLA, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BIBI, COLETTE, EMZ, JACKY, JANET, LOLA, MAX, OTIS, PIPER, RICO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, CROW, DYNAMIKE, EL PRIMO, ... </t>
+  </si>
+  <si>
+    <t>BEA, BELLE, GENE, PIPER, STU</t>
+  </si>
+  <si>
+    <t>BELLE, CROW, GENE, LEON, MAX, MORTIS, SANDY, SQUEAK, SURGE, TARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BONNIE, BYRON, COLETTE, CROW, FANG, GENE, GRIFF, JANET, LEON, MAX, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, EMZ, EVE, FANG, ... </t>
   </si>
   <si>
     <t>BULL, BUZZ, CROW, DARRYL, EMZ, GALE, JANET, MORTIS, SHELLY, SPIKE, STU, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, FRANK, GALE, GROM, ... </t>
-  </si>
-  <si>
-    <t>JANET, LEON, STU, TARA, TICK</t>
-  </si>
-  <si>
-    <t>BONNIE, CROW, DARRYL, EVE, FANG, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, JANET, LEON, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARL, CROW, EMZ, EVE, GRIFF, JESSIE, PIPER, ROSA, SANDY, SPIKE, SQUEAK, SURGE, ... </t>
-  </si>
-  <si>
-    <t>ASH, CARL, MAX, RICO</t>
+    <t xml:space="preserve">BARLEY, BEA, BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, FRANK, ... </t>
+  </si>
+  <si>
+    <t>COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, ... </t>
+  </si>
+  <si>
+    <t>ASH, CARL, GENE, MAX, RICO, STU, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BO, CARL, CROW, EMZ, EVE, GENE, GRIFF, JESSIE, PENNY, PIPER, ROSA, ... </t>
   </si>
   <si>
     <t>CARL, MAX, MORTIS, SPIKE, SURGE</t>
   </si>
   <si>
-    <t xml:space="preserve">BELLE, BIBI, BO, BROCK, BUZZ, CARL, DARRYL, EMZ, FANG, GALE, GENE, JANET, ... </t>
-  </si>
-  <si>
-    <t>DARRYL, EL PRIMO, GALE, LEON, SANDY</t>
-  </si>
-  <si>
-    <t>BUZZ, DARRYL, EMZ, GENE, GRIFF, MAX, MEG, PAM, POCO, SHELLY</t>
-  </si>
-  <si>
-    <t>ASH, CROW, FANG, MORTIS, SPIKE, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, PAM, ... </t>
-  </si>
-  <si>
-    <t>BROCK, BYRON, PENNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BELLE, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, LOLA, MEG, SPIKE, ... </t>
+    <t>LEON, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BULL, BUZZ, BYRON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BO, BONNIE, BYRON, CARL, COLETTE, COLT, CROW, EVE, FANG, GALE, GRIFF, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, ... </t>
+  </si>
+  <si>
+    <t>BROCK, BYRON, LEON, PENNY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, LOLA, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, ... </t>
+  </si>
+  <si>
+    <t>ASH, BEA, BELLE, BYRON, COLETTE, JANET, MAX, MORTIS, RUFFS, STU, SURGE</t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-10-10</t>
+    <t>2022-11-01</t>
   </si>
 </sst>
 </file>
@@ -755,16 +755,16 @@
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>37275</v>
+        <v>37663</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>68</v>
@@ -807,16 +807,16 @@
         <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>37275</v>
+        <v>37663</v>
       </c>
       <c r="E4" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>68</v>
@@ -833,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>6675</v>
+        <v>6553</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>29397</v>
+        <v>29588</v>
       </c>
       <c r="E6" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G6" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>70</v>
@@ -885,16 +885,16 @@
         <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>48005</v>
+        <v>49460</v>
       </c>
       <c r="E7" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>71</v>
@@ -911,16 +911,16 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>42224</v>
+        <v>45747</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>72</v>
@@ -931,22 +931,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>44174</v>
+        <v>34777</v>
       </c>
       <c r="E9" s="2">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G9" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>73</v>
@@ -963,16 +963,16 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>34121</v>
+        <v>36868</v>
       </c>
       <c r="E10" s="2">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>74</v>
@@ -989,16 +989,16 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>36363</v>
+        <v>46825</v>
       </c>
       <c r="E11" s="2">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
         <v>13</v>
-      </c>
-      <c r="F11" s="2">
-        <v>30</v>
-      </c>
-      <c r="G11" s="2">
-        <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>75</v>
@@ -1009,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>44717</v>
+        <v>42963</v>
       </c>
       <c r="E12" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>76</v>
@@ -1041,16 +1041,16 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>42758</v>
+        <v>31501</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>77</v>
@@ -1067,16 +1067,16 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>30697</v>
+        <v>44039</v>
       </c>
       <c r="E14" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>78</v>
@@ -1087,22 +1087,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>41619</v>
+        <v>33442</v>
       </c>
       <c r="E15" s="2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>79</v>
@@ -1119,16 +1119,16 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>33039</v>
+        <v>42689</v>
       </c>
       <c r="E16" s="2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>80</v>
@@ -1145,16 +1145,16 @@
         <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>41258</v>
+        <v>41085</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1165,22 +1165,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>40739</v>
+        <v>39145</v>
       </c>
       <c r="E18" s="2">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G18" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>82</v>
@@ -1197,16 +1197,16 @@
         <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>36332</v>
+        <v>42003</v>
       </c>
       <c r="E19" s="2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>83</v>
@@ -1223,16 +1223,16 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>41665</v>
+        <v>27821</v>
       </c>
       <c r="E20" s="2">
         <v>23</v>
       </c>
       <c r="F20" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>84</v>
@@ -1243,22 +1243,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>27580</v>
+        <v>30265</v>
       </c>
       <c r="E21" s="2">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G21" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>85</v>
@@ -1275,16 +1275,16 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>35757</v>
+        <v>31775</v>
       </c>
       <c r="E22" s="2">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G22" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>86</v>
@@ -1301,16 +1301,16 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>30060</v>
+        <v>38086</v>
       </c>
       <c r="E23" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>87</v>
@@ -1321,22 +1321,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>37531</v>
+        <v>40270</v>
       </c>
       <c r="E24" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1353,16 +1353,16 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>16200</v>
+        <v>15438</v>
       </c>
       <c r="E25" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>89</v>
@@ -1373,22 +1373,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>37402</v>
+        <v>35368</v>
       </c>
       <c r="E26" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F26" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>90</v>
@@ -1399,22 +1399,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>48000</v>
+        <v>38656</v>
       </c>
       <c r="E27" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G27" s="2">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>91</v>
@@ -1431,16 +1431,16 @@
         <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>23245</v>
+        <v>34579</v>
       </c>
       <c r="E28" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>92</v>
@@ -1451,22 +1451,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>31859</v>
+        <v>34557</v>
       </c>
       <c r="E29" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="2">
         <v>10</v>
       </c>
       <c r="G29" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>93</v>
@@ -1477,22 +1477,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>33855</v>
+        <v>37532</v>
       </c>
       <c r="E30" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F30" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>94</v>
@@ -1509,16 +1509,16 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>34504</v>
+        <v>38576</v>
       </c>
       <c r="E31" s="2">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F31" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="G31" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>95</v>
@@ -1528,23 +1528,21 @@
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
+      <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>37479</v>
+        <v>42800</v>
       </c>
       <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>32</v>
+      </c>
+      <c r="G32" s="2">
         <v>25</v>
-      </c>
-      <c r="F32" s="2">
-        <v>30</v>
-      </c>
-      <c r="G32" s="2">
-        <v>3</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>96</v>
@@ -1554,23 +1552,21 @@
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>37221</v>
+        <v>39153</v>
       </c>
       <c r="E33" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -1581,7 +1577,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9aurac_brawler_levels_team.xlsx
@@ -55,6 +55,9 @@
     <t>Tribe|LHC</t>
   </si>
   <si>
+    <t>Yanny3</t>
+  </si>
+  <si>
     <t>David</t>
   </si>
   <si>
@@ -64,42 +67,45 @@
     <t>Oh No! Jotaro</t>
   </si>
   <si>
+    <t>DepressedRekt™</t>
+  </si>
+  <si>
+    <t>VS∣Daniel</t>
+  </si>
+  <si>
+    <t>哥本哈根大使</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Hogglific</t>
+  </si>
+  <si>
+    <t>ZSilverZ</t>
+  </si>
+  <si>
+    <t>385181825</t>
+  </si>
+  <si>
+    <t>Ethan형사°</t>
+  </si>
+  <si>
+    <t>MuffinIsCute</t>
+  </si>
+  <si>
+    <t>nik haikal</t>
+  </si>
+  <si>
+    <t>❄|Vırtual ◇</t>
+  </si>
+  <si>
+    <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
+  </si>
+  <si>
     <t>Cred</t>
   </si>
   <si>
-    <t>DepressedRekt™</t>
-  </si>
-  <si>
-    <t>VS∣Daniel</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Hogglific</t>
-  </si>
-  <si>
-    <t>ZSilverZ</t>
-  </si>
-  <si>
-    <t>385181825</t>
-  </si>
-  <si>
-    <t>Ethan형사°</t>
-  </si>
-  <si>
-    <t>MuffinIsCute</t>
-  </si>
-  <si>
-    <t>nik haikal</t>
-  </si>
-  <si>
-    <t>❄|Vırtual ◇</t>
-  </si>
-  <si>
-    <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
-  </si>
-  <si>
     <t>SG|🔥Fire🔥</t>
   </si>
   <si>
@@ -124,12 +130,6 @@
     <t>one</t>
   </si>
   <si>
-    <t>TRIBE LHC</t>
-  </si>
-  <si>
-    <t>哥本哈根大使</t>
-  </si>
-  <si>
     <t>#CLR99L9L</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
     <t>#J2RLUJP2</t>
   </si>
   <si>
+    <t>#9C0UUJVJ</t>
+  </si>
+  <si>
     <t>#9UPQVRQ</t>
   </si>
   <si>
@@ -154,42 +157,45 @@
     <t>#YQ0LJU2</t>
   </si>
   <si>
+    <t>#VY9JJ9RQ</t>
+  </si>
+  <si>
+    <t>#PCRG080</t>
+  </si>
+  <si>
+    <t>#9CQURRU28</t>
+  </si>
+  <si>
+    <t>#C9LR0R0V</t>
+  </si>
+  <si>
+    <t>#UCY09URC</t>
+  </si>
+  <si>
+    <t>#2YQUPUYJ</t>
+  </si>
+  <si>
+    <t>#20P9JY09C</t>
+  </si>
+  <si>
+    <t>#R82QLVQJ</t>
+  </si>
+  <si>
+    <t>#RLUYCG8V</t>
+  </si>
+  <si>
+    <t>#P00C0RR8</t>
+  </si>
+  <si>
+    <t>#U99LR8PR</t>
+  </si>
+  <si>
+    <t>#RQUQG8JY</t>
+  </si>
+  <si>
     <t>#RGVL0L8V</t>
   </si>
   <si>
-    <t>#VY9JJ9RQ</t>
-  </si>
-  <si>
-    <t>#PCRG080</t>
-  </si>
-  <si>
-    <t>#C9LR0R0V</t>
-  </si>
-  <si>
-    <t>#UCY09URC</t>
-  </si>
-  <si>
-    <t>#2YQUPUYJ</t>
-  </si>
-  <si>
-    <t>#20P9JY09C</t>
-  </si>
-  <si>
-    <t>#R82QLVQJ</t>
-  </si>
-  <si>
-    <t>#RLUYCG8V</t>
-  </si>
-  <si>
-    <t>#P00C0RR8</t>
-  </si>
-  <si>
-    <t>#U99LR8PR</t>
-  </si>
-  <si>
-    <t>#RQUQG8JY</t>
-  </si>
-  <si>
     <t>#CQ8RC802</t>
   </si>
   <si>
@@ -214,12 +220,6 @@
     <t>#2LQ899P82</t>
   </si>
   <si>
-    <t>#9C0UUJVJ</t>
-  </si>
-  <si>
-    <t>#9CQURRU28</t>
-  </si>
-  <si>
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
   </si>
   <si>
@@ -235,55 +235,61 @@
     <t xml:space="preserve">BEA, BELLE, BIBI, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, ... </t>
   </si>
   <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, ... </t>
+  </si>
+  <si>
     <t>EMZ, EVE</t>
   </si>
   <si>
     <t xml:space="preserve">ASH, BEA, BELLE, BONNIE, CARL, COLETTE, CROW, GENE, GRIFF, JANET, LOLA, MAX, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, COLETTE, EMZ, JACKY, JANET, LOLA, MAX, OTIS, PIPER, RICO, ... </t>
+    <t xml:space="preserve">BEA, BELLE, BIBI, COLETTE, EMZ, GENE, JACKY, JANET, LOLA, MAX, OTIS, PIPER, ... </t>
+  </si>
+  <si>
+    <t>BEA, BELLE, GENE, PIPER, STU</t>
+  </si>
+  <si>
+    <t>BELLE, CROW, GENE, LEON, MAX, MORTIS, SANDY, SQUEAK, SURGE, TARA</t>
+  </si>
+  <si>
+    <t>ASH, BEA, BELLE, BYRON, COLETTE, JANET, MAX, MORTIS, RUFFS, STU, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, BONNIE, BYRON, COLETTE, CROW, FANG, GENE, GRIFF, GUS, JANET, LEON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, EMZ, EVE, FANG, ... </t>
+  </si>
+  <si>
+    <t>BULL, BUZZ, CROW, DARRYL, EMZ, GALE, JANET, MORTIS, SHELLY, SPIKE, STU, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, ... </t>
+  </si>
+  <si>
+    <t>COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, TICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, ... </t>
+  </si>
+  <si>
+    <t>ASH, CARL, GENE, MAX, RICO, STU, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, CARL, CROW, EMZ, EVE, GALE, GENE, GRIFF, JESSIE, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, CROW, DYNAMIKE, EL PRIMO, ... </t>
   </si>
   <si>
-    <t>BEA, BELLE, GENE, PIPER, STU</t>
-  </si>
-  <si>
-    <t>BELLE, CROW, GENE, LEON, MAX, MORTIS, SANDY, SQUEAK, SURGE, TARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BO, BONNIE, BYRON, COLETTE, CROW, FANG, GENE, GRIFF, JANET, LEON, MAX, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, EMZ, EVE, FANG, ... </t>
-  </si>
-  <si>
-    <t>BULL, BUZZ, CROW, DARRYL, EMZ, GALE, JANET, MORTIS, SHELLY, SPIKE, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARLEY, BEA, BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, FRANK, ... </t>
-  </si>
-  <si>
-    <t>COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, ... </t>
-  </si>
-  <si>
-    <t>ASH, CARL, GENE, MAX, RICO, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, CARL, CROW, EMZ, EVE, GENE, GRIFF, JESSIE, PENNY, PIPER, ROSA, ... </t>
-  </si>
-  <si>
-    <t>CARL, MAX, MORTIS, SPIKE, SURGE</t>
-  </si>
-  <si>
-    <t>LEON, STU</t>
+    <t>CARL, GENE, MAX, MORTIS, SPIKE, SURGE</t>
+  </si>
+  <si>
+    <t>BROCK, LEON, STU, TARA</t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BULL, BUZZ, BYRON, ... </t>
@@ -304,16 +310,10 @@
     <t xml:space="preserve">ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, LOLA, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, ... </t>
-  </si>
-  <si>
-    <t>ASH, BEA, BELLE, BYRON, COLETTE, JANET, MAX, MORTIS, RUFFS, STU, SURGE</t>
-  </si>
-  <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-01</t>
+    <t>2022-11-04</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>37663</v>
+        <v>37741</v>
       </c>
       <c r="E2" s="2">
         <v>27</v>
@@ -807,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="D4" s="2">
-        <v>37663</v>
+        <v>37741</v>
       </c>
       <c r="E4" s="2">
         <v>27</v>
@@ -833,7 +833,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="2">
-        <v>6553</v>
+        <v>6575</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="2">
-        <v>29588</v>
+        <v>29620</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -885,7 +885,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="2">
-        <v>49460</v>
+        <v>49853</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
@@ -911,7 +911,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>45747</v>
+        <v>46001</v>
       </c>
       <c r="E8" s="2">
         <v>28</v>
@@ -931,22 +931,22 @@
         <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>34777</v>
+        <v>43104</v>
       </c>
       <c r="E9" s="2">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>73</v>
@@ -963,16 +963,16 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>36868</v>
+        <v>34828</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F10" s="2">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>74</v>
@@ -989,16 +989,16 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>46825</v>
+        <v>36924</v>
       </c>
       <c r="E11" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>75</v>
@@ -1009,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>42963</v>
+        <v>46993</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>76</v>
@@ -1041,10 +1041,10 @@
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>31501</v>
+        <v>31632</v>
       </c>
       <c r="E13" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2">
         <v>23</v>
@@ -1067,7 +1067,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>44039</v>
+        <v>44216</v>
       </c>
       <c r="E14" s="2">
         <v>15</v>
@@ -1087,22 +1087,22 @@
         <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>33442</v>
+        <v>39437</v>
       </c>
       <c r="E15" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>79</v>
@@ -1119,16 +1119,16 @@
         <v>50</v>
       </c>
       <c r="D16" s="2">
-        <v>42689</v>
+        <v>33494</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>80</v>
@@ -1145,16 +1145,16 @@
         <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>41085</v>
+        <v>42686</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>81</v>
@@ -1165,22 +1165,22 @@
         <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="2">
-        <v>39145</v>
+        <v>41237</v>
       </c>
       <c r="E18" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G18" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>82</v>
@@ -1197,16 +1197,16 @@
         <v>53</v>
       </c>
       <c r="D19" s="2">
-        <v>42003</v>
+        <v>40000</v>
       </c>
       <c r="E19" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F19" s="2">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G19" s="2">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>83</v>
@@ -1223,16 +1223,16 @@
         <v>54</v>
       </c>
       <c r="D20" s="2">
-        <v>27821</v>
+        <v>42071</v>
       </c>
       <c r="E20" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>84</v>
@@ -1243,22 +1243,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="2">
-        <v>30265</v>
+        <v>27897</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>85</v>
@@ -1275,16 +1275,16 @@
         <v>56</v>
       </c>
       <c r="D22" s="2">
-        <v>31775</v>
+        <v>30265</v>
       </c>
       <c r="E22" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>86</v>
@@ -1301,16 +1301,16 @@
         <v>57</v>
       </c>
       <c r="D23" s="2">
-        <v>38086</v>
+        <v>31756</v>
       </c>
       <c r="E23" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23" s="2">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>87</v>
@@ -1321,22 +1321,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D24" s="2">
-        <v>40270</v>
+        <v>38166</v>
       </c>
       <c r="E24" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G24" s="2">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>88</v>
@@ -1353,16 +1353,16 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <v>15438</v>
+        <v>43031</v>
       </c>
       <c r="E25" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>89</v>
@@ -1373,22 +1373,22 @@
         <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="2">
-        <v>35368</v>
+        <v>40540</v>
       </c>
       <c r="E26" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G26" s="2">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>90</v>
@@ -1399,22 +1399,22 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="2">
-        <v>38656</v>
+        <v>15494</v>
       </c>
       <c r="E27" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="2">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>91</v>
@@ -1431,16 +1431,16 @@
         <v>62</v>
       </c>
       <c r="D28" s="2">
-        <v>34579</v>
+        <v>35384</v>
       </c>
       <c r="E28" s="2">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>92</v>
@@ -1451,22 +1451,22 @@
         <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D29" s="2">
-        <v>34557</v>
+        <v>38656</v>
       </c>
       <c r="E29" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F29" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G29" s="2">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>93</v>
@@ -1477,22 +1477,22 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="2">
-        <v>37532</v>
+        <v>34610</v>
       </c>
       <c r="E30" s="2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F30" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>94</v>
@@ -1509,16 +1509,16 @@
         <v>65</v>
       </c>
       <c r="D31" s="2">
-        <v>38576</v>
+        <v>34565</v>
       </c>
       <c r="E31" s="2">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F31" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G31" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>95</v>
@@ -1528,21 +1528,23 @@
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="2">
+        <v>10</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D32" s="2">
-        <v>42800</v>
+        <v>37521</v>
       </c>
       <c r="E32" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F32" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>96</v>
@@ -1552,21 +1554,23 @@
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="2">
+        <v>10</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="2">
-        <v>39153</v>
+        <v>38608</v>
       </c>
       <c r="E33" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F33" s="2">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G33" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>97</v>
@@ -1577,7 +1581,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H31">
+  <conditionalFormatting sqref="A2:H33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>

--- a/output/c9aurac_brawler_levels_team.xlsx
+++ b/output/c9aurac_brawler_levels_team.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>player</t>
   </si>
@@ -67,48 +67,45 @@
     <t>Oh No! Jotaro</t>
   </si>
   <si>
+    <t>Cred</t>
+  </si>
+  <si>
     <t>DepressedRekt™</t>
   </si>
   <si>
+    <t>哥本哈根大使</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Hogglific</t>
+  </si>
+  <si>
+    <t>ZSilverZ</t>
+  </si>
+  <si>
+    <t>Ethan형사°</t>
+  </si>
+  <si>
+    <t>Fortnite</t>
+  </si>
+  <si>
+    <t>MuffinIsCute</t>
+  </si>
+  <si>
+    <t>❄|Vırtual ◇</t>
+  </si>
+  <si>
+    <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
+  </si>
+  <si>
+    <t>SG|🔥Fire🔥</t>
+  </si>
+  <si>
     <t>VS∣Daniel</t>
   </si>
   <si>
-    <t>哥本哈根大使</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Hogglific</t>
-  </si>
-  <si>
-    <t>ZSilverZ</t>
-  </si>
-  <si>
-    <t>385181825</t>
-  </si>
-  <si>
-    <t>Ethan형사°</t>
-  </si>
-  <si>
-    <t>MuffinIsCute</t>
-  </si>
-  <si>
-    <t>nik haikal</t>
-  </si>
-  <si>
-    <t>❄|Vırtual ◇</t>
-  </si>
-  <si>
-    <t>꧁✨やͪeͧ༒ͨ 𝖊𝖗✨꧂</t>
-  </si>
-  <si>
-    <t>Cred</t>
-  </si>
-  <si>
-    <t>SG|🔥Fire🔥</t>
-  </si>
-  <si>
     <t>ᴸᴼᵛᴱ ᵞᴼᵁ Aegis</t>
   </si>
   <si>
@@ -157,48 +154,45 @@
     <t>#YQ0LJU2</t>
   </si>
   <si>
+    <t>#RGVL0L8V</t>
+  </si>
+  <si>
     <t>#VY9JJ9RQ</t>
   </si>
   <si>
+    <t>#9CQURRU28</t>
+  </si>
+  <si>
+    <t>#C9LR0R0V</t>
+  </si>
+  <si>
+    <t>#UCY09URC</t>
+  </si>
+  <si>
+    <t>#2YQUPUYJ</t>
+  </si>
+  <si>
+    <t>#R82QLVQJ</t>
+  </si>
+  <si>
+    <t>#PY0YR2CR8</t>
+  </si>
+  <si>
+    <t>#RLUYCG8V</t>
+  </si>
+  <si>
+    <t>#U99LR8PR</t>
+  </si>
+  <si>
+    <t>#RQUQG8JY</t>
+  </si>
+  <si>
+    <t>#CQ8RC802</t>
+  </si>
+  <si>
     <t>#PCRG080</t>
   </si>
   <si>
-    <t>#9CQURRU28</t>
-  </si>
-  <si>
-    <t>#C9LR0R0V</t>
-  </si>
-  <si>
-    <t>#UCY09URC</t>
-  </si>
-  <si>
-    <t>#2YQUPUYJ</t>
-  </si>
-  <si>
-    <t>#20P9JY09C</t>
-  </si>
-  <si>
-    <t>#R82QLVQJ</t>
-  </si>
-  <si>
-    <t>#RLUYCG8V</t>
-  </si>
-  <si>
-    <t>#P00C0RR8</t>
-  </si>
-  <si>
-    <t>#U99LR8PR</t>
-  </si>
-  <si>
-    <t>#RQUQG8JY</t>
-  </si>
-  <si>
-    <t>#RGVL0L8V</t>
-  </si>
-  <si>
-    <t>#CQ8RC802</t>
-  </si>
-  <si>
     <t>#LVCLCLYC</t>
   </si>
   <si>
@@ -223,19 +217,19 @@
     <t xml:space="preserve">AMBER, ASH, BEA, BELLE, BROCK, BYRON, CARL, CROW, EMZ, GRIFF, JANET, LOLA, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BIBI, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, NANI, PAM, ... </t>
+    <t xml:space="preserve">BELLE, BIBI, BROCK, BULL, CARL, COLT, CROW, EL PRIMO, JESSIE, MAX, MORTIS, MR. P, ... </t>
   </si>
   <si>
     <t xml:space="preserve">8-BIT, AMBER, ASH, BELLE, BYRON, CARL, DARRYL, GALE, GENE, GRIFF, LOLA, MAX, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, MAX, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EDGAR, EMZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BYRON, CARL, CROW, DARRYL, EMZ, EVE, GALE, GENE, GUS, ... </t>
+    <t xml:space="preserve">BO, BUZZ, BYRON, CARL, COLETTE, CROW, EMZ, FRANK, GALE, GENE, GRIFF, LEON, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BUSTER, BUZZ, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
   </si>
   <si>
     <t>EMZ, EVE</t>
@@ -244,57 +238,51 @@
     <t xml:space="preserve">ASH, BEA, BELLE, BONNIE, CARL, COLETTE, CROW, GENE, GRIFF, JANET, LOLA, MAX, ... </t>
   </si>
   <si>
-    <t xml:space="preserve">BEA, BELLE, BIBI, COLETTE, EMZ, GENE, JACKY, JANET, LOLA, MAX, OTIS, PIPER, ... </t>
+    <t xml:space="preserve">AMBER, BEA, BELLE, BIBI, COLETTE, EMZ, GENE, JACKY, JANET, LOLA, MAX, NITA, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BULL, BUZZ, BYRON, ... </t>
   </si>
   <si>
     <t>BEA, BELLE, GENE, PIPER, STU</t>
   </si>
   <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BO, BYRON, COLETTE, FANG, JANET, MAX, MORTIS, PIPER, RICO, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BO, BONNIE, BYRON, COLETTE, CROW, FANG, GENE, GRIFF, GUS, JANET, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, CROW, EMZ, EVE, ... </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, ... </t>
+  </si>
+  <si>
+    <t>BELLE, CARL, MORTIS, PIPER, STU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEA, BO, COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, ... </t>
+  </si>
+  <si>
+    <t>ASH, BIBI, CARL, GENE, MAX, RICO, STU, SURGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, CARL, CROW, DARRYL, EL PRIMO, EMZ, EVE, GALE, GENE, ... </t>
+  </si>
+  <si>
+    <t>CARL, GENE, MAX, MORTIS, SPIKE, SURGE</t>
+  </si>
+  <si>
     <t>BELLE, CROW, GENE, LEON, MAX, MORTIS, SANDY, SQUEAK, SURGE, TARA</t>
   </si>
   <si>
-    <t>ASH, BEA, BELLE, BYRON, COLETTE, JANET, MAX, MORTIS, RUFFS, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BO, BONNIE, BYRON, COLETTE, CROW, FANG, GENE, GRIFF, GUS, JANET, LEON, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BONNIE, BROCK, BULL, BUZZ, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BIBI, BO, BROCK, BUZZ, CARL, COLETTE, EMZ, EVE, FANG, ... </t>
-  </si>
-  <si>
-    <t>BULL, BUZZ, CROW, DARRYL, EMZ, GALE, JANET, MORTIS, SHELLY, SPIKE, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, BARLEY, BEA, BELLE, BROCK, BYRON, CARL, COLETTE, CROW, DARRYL, EMZ, FANG, ... </t>
-  </si>
-  <si>
-    <t>COLETTE, EMZ, GALE, JANET, LEON, LOLA, POCO, SPIKE, STU, TARA, TICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEA, BELLE, BO, BONNIE, BROCK, BUZZ, CROW, EMZ, EVE, GALE, GRIFF, GUS, ... </t>
-  </si>
-  <si>
-    <t>ASH, CARL, GENE, MAX, RICO, STU, SURGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BELLE, BO, BROCK, BUZZ, CARL, CROW, EMZ, EVE, GALE, GENE, GRIFF, JESSIE, ... </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-BIT, ASH, BARLEY, BEA, BELLE, BO, BROCK, BYRON, CARL, CROW, DYNAMIKE, EL PRIMO, ... </t>
-  </si>
-  <si>
-    <t>CARL, GENE, MAX, MORTIS, SPIKE, SURGE</t>
-  </si>
-  <si>
     <t>BROCK, LEON, STU, TARA</t>
   </si>
   <si>
-    <t xml:space="preserve">8-BIT, AMBER, ASH, BARLEY, BEA, BELLE, BIBI, BO, BROCK, BULL, BUZZ, BYRON, ... </t>
-  </si>
-  <si>
     <t xml:space="preserve">8-BIT, AMBER, BARLEY, BEA, BELLE, BUZZ, BYRON, COLETTE, CROW, DYNAMIKE, EDGAR, EMZ, ... </t>
   </si>
   <si>
@@ -304,16 +292,16 @@
     <t xml:space="preserve">BELLE, BO, BONNIE, BYRON, CARL, DARRYL, EVE, FANG, GALE, JANET, MAX, MR. P, ... </t>
   </si>
   <si>
-    <t>BROCK, BYRON, LEON, PENNY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, LOLA, ... </t>
+    <t>BROCK, BYRON, CROW, LEON, PENNY, PIPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-BIT, ASH, BEA, BELLE, BO, BROCK, BYRON, CARL, EMZ, GENE, GRIFF, JANET, ... </t>
   </si>
   <si>
     <t>C9 Brawler Levels</t>
   </si>
   <si>
-    <t>2022-11-04</t>
+    <t>2022-11-14</t>
   </si>
 </sst>
 </file>
@@ -684,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,7 +685,7 @@
   <sheetData>
     <row r="1" spans="1:45">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -746,16 +734,16 @@
     </row>
     <row r="2" spans="1:45">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2">
-        <v>37741</v>
+        <v>37453</v>
       </c>
       <c r="E2" s="2">
         <v>27</v>
@@ -767,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:45">
@@ -804,10 +792,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>37741</v>
+        <v>37453</v>
       </c>
       <c r="E4" s="2">
         <v>27</v>
@@ -819,7 +807,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -830,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
-        <v>6575</v>
+        <v>6723</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -842,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -856,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2">
-        <v>29620</v>
+        <v>28945</v>
       </c>
       <c r="E6" s="2">
         <v>6</v>
@@ -871,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -882,22 +870,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2">
-        <v>49853</v>
+        <v>49451</v>
       </c>
       <c r="E7" s="2">
         <v>15</v>
       </c>
       <c r="F7" s="2">
+        <v>22</v>
+      </c>
+      <c r="G7" s="2">
         <v>23</v>
       </c>
-      <c r="G7" s="2">
-        <v>22</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -908,22 +896,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2">
-        <v>46001</v>
+        <v>45613</v>
       </c>
       <c r="E8" s="2">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6</v>
+      </c>
+      <c r="G8" s="2">
         <v>28</v>
       </c>
-      <c r="F8" s="2">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2">
-        <v>25</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -934,22 +922,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>43104</v>
+        <v>43518</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -960,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>34828</v>
+        <v>34711</v>
       </c>
       <c r="E10" s="2">
         <v>42</v>
@@ -975,7 +963,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -986,10 +974,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>36924</v>
+        <v>36710</v>
       </c>
       <c r="E11" s="2">
         <v>12</v>
@@ -1001,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:45">
@@ -1012,22 +1000,22 @@
         <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2">
-        <v>46993</v>
+        <v>46924</v>
       </c>
       <c r="E12" s="2">
         <v>22</v>
       </c>
       <c r="F12" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -1038,22 +1026,22 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2">
-        <v>31632</v>
+        <v>42258</v>
       </c>
       <c r="E13" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -1064,22 +1052,22 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
-        <v>44216</v>
+        <v>31840</v>
       </c>
       <c r="E14" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -1090,22 +1078,22 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2">
-        <v>39437</v>
+        <v>39614</v>
       </c>
       <c r="E15" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -1116,22 +1104,22 @@
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2">
-        <v>33494</v>
+        <v>33114</v>
       </c>
       <c r="E16" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1142,13 +1130,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="2">
-        <v>42686</v>
+        <v>42652</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -1157,7 +1145,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1168,22 +1156,22 @@
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2">
-        <v>41237</v>
+        <v>41370</v>
       </c>
       <c r="E18" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1194,22 +1182,22 @@
         <v>6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2">
-        <v>40000</v>
+        <v>41493</v>
       </c>
       <c r="E19" s="2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F19" s="2">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1220,22 +1208,22 @@
         <v>6</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="2">
-        <v>42071</v>
+        <v>36776</v>
       </c>
       <c r="E20" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
         <v>19</v>
       </c>
       <c r="G20" s="2">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1246,22 +1234,22 @@
         <v>6</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="2">
-        <v>27897</v>
+        <v>27697</v>
       </c>
       <c r="E21" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1272,22 +1260,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
-        <v>30265</v>
+        <v>31338</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F22" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1298,22 +1286,22 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="2">
-        <v>31756</v>
+        <v>37733</v>
       </c>
       <c r="E23" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F23" s="2">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G23" s="2">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1321,25 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2">
-        <v>38166</v>
+        <v>40288</v>
       </c>
       <c r="E24" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G24" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1350,22 +1338,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="2">
-        <v>43031</v>
+        <v>44840</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F25" s="2">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G25" s="2">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1376,22 +1364,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2">
-        <v>40540</v>
+        <v>15434</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="G26" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1399,25 +1387,25 @@
         <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="2">
-        <v>15494</v>
+        <v>34994</v>
       </c>
       <c r="E27" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1428,22 +1416,22 @@
         <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2">
-        <v>35384</v>
+        <v>38375</v>
       </c>
       <c r="E28" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1454,22 +1442,22 @@
         <v>9</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2">
-        <v>38656</v>
+        <v>34276</v>
       </c>
       <c r="E29" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F29" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="2">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1477,25 +1465,25 @@
         <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2">
-        <v>34610</v>
+        <v>33559</v>
       </c>
       <c r="E30" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1506,22 +1494,22 @@
         <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="2">
-        <v>34565</v>
+        <v>37492</v>
       </c>
       <c r="E31" s="2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G31" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1532,48 +1520,22 @@
         <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2">
-        <v>37521</v>
+        <v>38382</v>
       </c>
       <c r="E32" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F32" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G32" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="2">
-        <v>38608</v>
-      </c>
-      <c r="E33" s="2">
-        <v>21</v>
-      </c>
-      <c r="F33" s="2">
-        <v>24</v>
-      </c>
-      <c r="G33" s="2">
-        <v>15</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1543,7 @@
     <mergeCell ref="A1:AS1"/>
     <mergeCell ref="A2:AS2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A2:H33">
+  <conditionalFormatting sqref="A2:H32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD($B2,2)=0</formula>
     </cfRule>
